--- a/LIWC/t-test_global_results.xlsx
+++ b/LIWC/t-test_global_results.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10708"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/paigelee/Desktop/summer2022/stanford/research/ukraine-media-CSLI/LIWC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F0D8053-5CA4-6D49-A3C3-8643C819184F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7ED52D7-1C15-DA4B-9DC6-75AB184FFF6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14020" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="16180" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -781,7 +781,7 @@
   <dimension ref="A1:F89"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="137" workbookViewId="0">
-      <selection activeCell="B6" sqref="A1:XFD1048576"/>
+      <selection activeCell="A2" sqref="A2:A89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="19" x14ac:dyDescent="0.25"/>
@@ -824,7 +824,7 @@
         <v>45.151106382978718</v>
       </c>
       <c r="D2" s="6">
-        <f>C2-B2</f>
+        <f t="shared" ref="D2:D33" si="0">C2-B2</f>
         <v>2.8191351522914445</v>
       </c>
       <c r="E2" s="6">
@@ -845,7 +845,7 @@
         <v>24.187686170212761</v>
       </c>
       <c r="D3" s="6">
-        <f>C3-B3</f>
+        <f t="shared" si="0"/>
         <v>2.1454538846506921</v>
       </c>
       <c r="E3" s="6">
@@ -866,7 +866,7 @@
         <v>32.399228723404264</v>
       </c>
       <c r="D4" s="6">
-        <f>C4-B4</f>
+        <f t="shared" si="0"/>
         <v>1.597252165066493</v>
       </c>
       <c r="E4" s="6">
@@ -887,7 +887,7 @@
         <v>14.553446808510641</v>
       </c>
       <c r="D5" s="6">
-        <f>C5-B5</f>
+        <f t="shared" si="0"/>
         <v>1.3300690780897604</v>
       </c>
       <c r="E5" s="6">
@@ -908,7 +908,7 @@
         <v>9.3642500000000002</v>
       </c>
       <c r="D6" s="6">
-        <f>C6-B6</f>
+        <f t="shared" si="0"/>
         <v>1.2868232551944576</v>
       </c>
       <c r="E6" s="6">
@@ -929,7 +929,7 @@
         <v>55.96103191489361</v>
       </c>
       <c r="D7" s="6">
-        <f>C7-B7</f>
+        <f t="shared" si="0"/>
         <v>1.2542231775467769</v>
       </c>
       <c r="E7" s="6">
@@ -950,7 +950,7 @@
         <v>6.3782606382978706</v>
       </c>
       <c r="D8" s="6">
-        <f>C8-B8</f>
+        <f t="shared" si="0"/>
         <v>1.1149148737800232</v>
       </c>
       <c r="E8" s="6">
@@ -971,7 +971,7 @@
         <v>4.5108085106382978</v>
       </c>
       <c r="D9" s="6">
-        <f>C9-B9</f>
+        <f t="shared" si="0"/>
         <v>1.1096364275269499</v>
       </c>
       <c r="E9" s="6">
@@ -992,7 +992,7 @@
         <v>15.986893617021281</v>
       </c>
       <c r="D10" s="6">
-        <f>C10-B10</f>
+        <f t="shared" si="0"/>
         <v>0.94559899794828972</v>
       </c>
       <c r="E10" s="6">
@@ -1013,7 +1013,7 @@
         <v>6.4382234042553197</v>
       </c>
       <c r="D11" s="6">
-        <f>C11-B11</f>
+        <f t="shared" si="0"/>
         <v>0.85555957900225632</v>
       </c>
       <c r="E11" s="6">
@@ -1034,7 +1034,7 @@
         <v>3.839797872340426</v>
       </c>
       <c r="D12" s="6">
-        <f>C12-B12</f>
+        <f t="shared" si="0"/>
         <v>0.74569558145070891</v>
       </c>
       <c r="E12" s="6">
@@ -1055,7 +1055,7 @@
         <v>8.197877659574468</v>
       </c>
       <c r="D13" s="8">
-        <f>C13-B13</f>
+        <f t="shared" si="0"/>
         <v>0.72150578956914035</v>
       </c>
       <c r="E13" s="6">
@@ -1076,7 +1076,7 @@
         <v>8.7541063829787245</v>
       </c>
       <c r="D14" s="7">
-        <f>C14-B14</f>
+        <f t="shared" si="0"/>
         <v>0.61956189709699849</v>
       </c>
       <c r="E14" s="6">
@@ -1097,7 +1097,7 @@
         <v>5.5066702127659566</v>
       </c>
       <c r="D15" s="6">
-        <f>C15-B15</f>
+        <f t="shared" si="0"/>
         <v>0.44950985048572178</v>
       </c>
       <c r="E15" s="6">
@@ -1118,7 +1118,7 @@
         <v>0.9232606382978723</v>
       </c>
       <c r="D16" s="6">
-        <f>C16-B16</f>
+        <f t="shared" si="0"/>
         <v>0.39410773472834648</v>
       </c>
       <c r="E16" s="6">
@@ -1139,7 +1139,7 @@
         <v>6.1309734042553199</v>
       </c>
       <c r="D17" s="6">
-        <f>C17-B17</f>
+        <f t="shared" si="0"/>
         <v>0.38939109205499989</v>
       </c>
       <c r="E17" s="6">
@@ -1160,7 +1160,7 @@
         <v>3.175047872340425</v>
       </c>
       <c r="D18" s="6">
-        <f>C18-B18</f>
+        <f t="shared" si="0"/>
         <v>0.38412618880286509</v>
       </c>
       <c r="E18" s="6">
@@ -1181,7 +1181,7 @@
         <v>10.948946808510639</v>
       </c>
       <c r="D19" s="6">
-        <f>C19-B19</f>
+        <f t="shared" si="0"/>
         <v>0.37874968544190857</v>
       </c>
       <c r="E19" s="6">
@@ -1202,7 +1202,7 @@
         <v>1.6268989361702131</v>
       </c>
       <c r="D20" s="6">
-        <f>C20-B20</f>
+        <f t="shared" si="0"/>
         <v>0.33471459946270099</v>
       </c>
       <c r="E20" s="6">
@@ -1223,7 +1223,7 @@
         <v>0.49518085106382981</v>
       </c>
       <c r="D21" s="6">
-        <f>C21-B21</f>
+        <f t="shared" si="0"/>
         <v>0.24474931137283351</v>
       </c>
       <c r="E21" s="6">
@@ -1244,7 +1244,7 @@
         <v>1.073723404255319</v>
       </c>
       <c r="D22" s="6">
-        <f>C22-B22</f>
+        <f t="shared" si="0"/>
         <v>0.23766053797934672</v>
       </c>
       <c r="E22" s="6">
@@ -1265,7 +1265,7 @@
         <v>1.359202127659574</v>
       </c>
       <c r="D23" s="6">
-        <f>C23-B23</f>
+        <f t="shared" si="0"/>
         <v>0.23531827044060805</v>
       </c>
       <c r="E23" s="6">
@@ -1286,7 +1286,7 @@
         <v>0.87790957446808504</v>
       </c>
       <c r="D24" s="6">
-        <f>C24-B24</f>
+        <f t="shared" si="0"/>
         <v>0.2289111727632368</v>
       </c>
       <c r="E24" s="6">
@@ -1307,7 +1307,7 @@
         <v>2.49577659574468</v>
       </c>
       <c r="D25" s="6">
-        <f>C25-B25</f>
+        <f t="shared" si="0"/>
         <v>0.20926087917568692</v>
       </c>
       <c r="E25" s="6">
@@ -1328,7 +1328,7 @@
         <v>1.5691010638297871</v>
       </c>
       <c r="D26" s="6">
-        <f>C26-B26</f>
+        <f t="shared" si="0"/>
         <v>0.202979593398247</v>
       </c>
       <c r="E26" s="6">
@@ -1349,7 +1349,7 @@
         <v>1.3630106382978719</v>
       </c>
       <c r="D27" s="6">
-        <f>C27-B27</f>
+        <f t="shared" si="0"/>
         <v>0.19236599258663101</v>
       </c>
       <c r="E27" s="6">
@@ -1370,7 +1370,7 @@
         <v>5.3843723404255313</v>
       </c>
       <c r="D28" s="6">
-        <f>C28-B28</f>
+        <f t="shared" si="0"/>
         <v>0.17511821149638784</v>
       </c>
       <c r="E28" s="6">
@@ -1391,7 +1391,7 @@
         <v>1.5414893617021279</v>
       </c>
       <c r="D29" s="6">
-        <f>C29-B29</f>
+        <f t="shared" si="0"/>
         <v>0.16335403937927295</v>
       </c>
       <c r="E29" s="6">
@@ -1412,7 +1412,7 @@
         <v>2.0291223404255319</v>
       </c>
       <c r="D30" s="6">
-        <f>C30-B30</f>
+        <f t="shared" si="0"/>
         <v>0.12678882950384796</v>
       </c>
       <c r="E30" s="6">
@@ -1433,7 +1433,7 @@
         <v>0.52807978723404259</v>
       </c>
       <c r="D31" s="6">
-        <f>C31-B31</f>
+        <f t="shared" si="0"/>
         <v>0.12431846597671697</v>
       </c>
       <c r="E31" s="6">
@@ -1454,7 +1454,7 @@
         <v>2.5984946808510641</v>
       </c>
       <c r="D32" s="6">
-        <f>C32-B32</f>
+        <f t="shared" si="0"/>
         <v>0.10986921468164512</v>
       </c>
       <c r="E32" s="6">
@@ -1475,7 +1475,7 @@
         <v>0.13598404255319149</v>
       </c>
       <c r="D33" s="6">
-        <f>C33-B33</f>
+        <f t="shared" si="0"/>
         <v>5.9772002063047641E-2</v>
       </c>
       <c r="E33" s="6">
@@ -1496,7 +1496,7 @@
         <v>0.54381382978723403</v>
       </c>
       <c r="D34" s="6">
-        <f>C34-B34</f>
+        <f t="shared" ref="D34:D65" si="1">C34-B34</f>
         <v>4.835831566896015E-2</v>
       </c>
       <c r="E34" s="6">
@@ -1517,7 +1517,7 @@
         <v>0.32850000000000001</v>
       </c>
       <c r="D35" s="6">
-        <f>C35-B35</f>
+        <f t="shared" si="1"/>
         <v>4.5100958977091099E-2</v>
       </c>
       <c r="E35" s="6">
@@ -1538,7 +1538,7 @@
         <v>0.1690691489361702</v>
       </c>
       <c r="D36" s="6">
-        <f>C36-B36</f>
+        <f t="shared" si="1"/>
         <v>3.8738834604790301E-2</v>
       </c>
       <c r="E36" s="6">
@@ -1559,7 +1559,7 @@
         <v>0.1528829787234042</v>
       </c>
       <c r="D37" s="6">
-        <f>C37-B37</f>
+        <f t="shared" si="1"/>
         <v>2.8045472063841101E-2</v>
       </c>
       <c r="E37" s="6">
@@ -1580,7 +1580,7 @@
         <v>3.6223404255319148E-2</v>
       </c>
       <c r="D38" s="6">
-        <f>C38-B38</f>
+        <f t="shared" si="1"/>
         <v>1.74061426676793E-2</v>
       </c>
       <c r="E38" s="6">
@@ -1601,7 +1601,7 @@
         <v>3.9702127659574468E-2</v>
       </c>
       <c r="D39" s="6">
-        <f>C39-B39</f>
+        <f t="shared" si="1"/>
         <v>1.1375009918498279E-2</v>
       </c>
       <c r="E39" s="6">
@@ -1622,7 +1622,7 @@
         <v>3.047872340425532E-3</v>
       </c>
       <c r="D40" s="6">
-        <f>C40-B40</f>
+        <f t="shared" si="1"/>
         <v>-3.553086636665571E-3</v>
       </c>
       <c r="E40" s="6">
@@ -1643,7 +1643,7 @@
         <v>1.022340425531915E-2</v>
       </c>
       <c r="D41" s="6">
-        <f>C41-B41</f>
+        <f t="shared" si="1"/>
         <v>-6.7078690531518111E-3</v>
       </c>
       <c r="E41" s="6">
@@ -1664,7 +1664,7 @@
         <v>2.140425531914893E-2</v>
       </c>
       <c r="D42" s="6">
-        <f>C42-B42</f>
+        <f t="shared" si="1"/>
         <v>-1.5633570999444558E-2</v>
       </c>
       <c r="E42" s="6">
@@ -1685,7 +1685,7 @@
         <v>0.1106595744680851</v>
       </c>
       <c r="D43" s="6">
-        <f>C43-B43</f>
+        <f t="shared" si="1"/>
         <v>-2.1045273693875502E-2</v>
       </c>
       <c r="E43" s="6">
@@ -1706,7 +1706,7 @@
         <v>0.34497872340425528</v>
       </c>
       <c r="D44" s="6">
-        <f>C44-B44</f>
+        <f t="shared" si="1"/>
         <v>-3.0466135413006301E-2</v>
       </c>
       <c r="E44" s="6">
@@ -1727,7 +1727,7 @@
         <v>0.102218085106383</v>
       </c>
       <c r="D45" s="6">
-        <f>C45-B45</f>
+        <f t="shared" si="1"/>
         <v>-3.2805889320894593E-2</v>
       </c>
       <c r="E45" s="6">
@@ -1748,7 +1748,7 @@
         <v>4.6882978723404259E-2</v>
       </c>
       <c r="D46" s="6">
-        <f>C46-B46</f>
+        <f t="shared" si="1"/>
         <v>-3.3532578016073636E-2</v>
       </c>
       <c r="E46" s="6">
@@ -1769,7 +1769,7 @@
         <v>3.1191489361702129E-2</v>
       </c>
       <c r="D47" s="6">
-        <f>C47-B47</f>
+        <f t="shared" si="1"/>
         <v>-5.0907604937711848E-2</v>
       </c>
       <c r="E47" s="6">
@@ -1790,7 +1790,7 @@
         <v>7.4047872340425536E-2</v>
       </c>
       <c r="D48" s="6">
-        <f>C48-B48</f>
+        <f t="shared" si="1"/>
         <v>-5.1801887915301659E-2</v>
       </c>
       <c r="E48" s="6">
@@ -1811,7 +1811,7 @@
         <v>0.50827659574468087</v>
       </c>
       <c r="D49" s="6">
-        <f>C49-B49</f>
+        <f t="shared" si="1"/>
         <v>-5.3231129348553008E-2</v>
       </c>
       <c r="E49" s="6">
@@ -1832,7 +1832,7 @@
         <v>0.1494521276595745</v>
       </c>
       <c r="D50" s="6">
-        <f>C50-B50</f>
+        <f t="shared" si="1"/>
         <v>-6.5635778573776615E-2</v>
       </c>
       <c r="E50" s="6">
@@ -1853,7 +1853,7 @@
         <v>3.2962765957446807E-2</v>
       </c>
       <c r="D51" s="6">
-        <f>C51-B51</f>
+        <f t="shared" si="1"/>
         <v>-6.5652044910960217E-2</v>
       </c>
       <c r="E51" s="6">
@@ -1874,7 +1874,7 @@
         <v>7.2414893617021275E-2</v>
       </c>
       <c r="D52" s="6">
-        <f>C52-B52</f>
+        <f t="shared" si="1"/>
         <v>-6.7814195354742229E-2</v>
       </c>
       <c r="E52" s="6">
@@ -1895,7 +1895,7 @@
         <v>3.2218085106382979E-2</v>
       </c>
       <c r="D53" s="6">
-        <f>C53-B53</f>
+        <f t="shared" si="1"/>
         <v>-6.9811749736451323E-2</v>
       </c>
       <c r="E53" s="6">
@@ -1916,7 +1916,7 @@
         <v>8.826063829787234E-2</v>
       </c>
       <c r="D54" s="6">
-        <f>C54-B54</f>
+        <f t="shared" si="1"/>
         <v>-7.037548317255915E-2</v>
       </c>
       <c r="E54" s="6">
@@ -1937,7 +1937,7 @@
         <v>0.1205159574468085</v>
       </c>
       <c r="D55" s="6">
-        <f>C55-B55</f>
+        <f t="shared" si="1"/>
         <v>-7.8152129926659805E-2</v>
       </c>
       <c r="E55" s="6">
@@ -1958,7 +1958,7 @@
         <v>7.4686170212765954E-2</v>
       </c>
       <c r="D56" s="6">
-        <f>C56-B56</f>
+        <f t="shared" si="1"/>
         <v>-9.1499232024847235E-2</v>
       </c>
       <c r="E56" s="6">
@@ -1979,7 +1979,7 @@
         <v>1.489196808510638</v>
       </c>
       <c r="D57" s="6">
-        <f>C57-B57</f>
+        <f t="shared" si="1"/>
         <v>-0.10638124156927709</v>
       </c>
       <c r="E57" s="6">
@@ -2000,7 +2000,7 @@
         <v>0.66368085106382979</v>
       </c>
       <c r="D58" s="6">
-        <f>C58-B58</f>
+        <f t="shared" si="1"/>
         <v>-0.11813587775875933</v>
       </c>
       <c r="E58" s="6">
@@ -2021,7 +2021,7 @@
         <v>0.92179787234042554</v>
       </c>
       <c r="D59" s="6">
-        <f>C59-B59</f>
+        <f t="shared" si="1"/>
         <v>-0.12186755120778947</v>
       </c>
       <c r="E59" s="6">
@@ -2042,7 +2042,7 @@
         <v>0.86660638297872339</v>
       </c>
       <c r="D60" s="6">
-        <f>C60-B60</f>
+        <f t="shared" si="1"/>
         <v>-0.12947246624876729</v>
       </c>
       <c r="E60" s="6">
@@ -2063,7 +2063,7 @@
         <v>1.385404255319149</v>
       </c>
       <c r="D61" s="6">
-        <f>C61-B61</f>
+        <f t="shared" si="1"/>
         <v>-0.15358349108468694</v>
       </c>
       <c r="E61" s="6">
@@ -2084,7 +2084,7 @@
         <v>0.18248936170212771</v>
       </c>
       <c r="D62" s="6">
-        <f>C62-B62</f>
+        <f t="shared" si="1"/>
         <v>-0.16009454879334378</v>
       </c>
       <c r="E62" s="6">
@@ -2105,7 +2105,7 @@
         <v>5.0473882978723408</v>
       </c>
       <c r="D63" s="6">
-        <f>C63-B63</f>
+        <f t="shared" si="1"/>
         <v>-0.16972944320384364</v>
       </c>
       <c r="E63" s="6">
@@ -2126,7 +2126,7 @@
         <v>0.78123404255319151</v>
       </c>
       <c r="D64" s="6">
-        <f>C64-B64</f>
+        <f t="shared" si="1"/>
         <v>-0.17389115723370241</v>
       </c>
       <c r="E64" s="6">
@@ -2147,7 +2147,7 @@
         <v>0.93183510638297873</v>
       </c>
       <c r="D65" s="6">
-        <f>C65-B65</f>
+        <f t="shared" si="1"/>
         <v>-0.21285855371291829</v>
       </c>
       <c r="E65" s="6">
@@ -2168,7 +2168,7 @@
         <v>0.40378191489361698</v>
       </c>
       <c r="D66" s="6">
-        <f>C66-B66</f>
+        <f t="shared" ref="D66:D97" si="2">C66-B66</f>
         <v>-0.21402842074836498</v>
       </c>
       <c r="E66" s="6">
@@ -2189,7 +2189,7 @@
         <v>7.8643617021276604E-2</v>
       </c>
       <c r="D67" s="6">
-        <f>C67-B67</f>
+        <f t="shared" si="2"/>
         <v>-0.21976874312789763</v>
       </c>
       <c r="E67" s="6">
@@ -2210,7 +2210,7 @@
         <v>3.8471010638297871</v>
       </c>
       <c r="D68" s="6">
-        <f>C68-B68</f>
+        <f t="shared" si="2"/>
         <v>-0.24958513755540146</v>
       </c>
       <c r="E68" s="6">
@@ -2231,7 +2231,7 @@
         <v>0.1671542553191489</v>
       </c>
       <c r="D69" s="6">
-        <f>C69-B69</f>
+        <f t="shared" si="2"/>
         <v>-0.28884467915074991</v>
       </c>
       <c r="E69" s="6">
@@ -2252,7 +2252,7 @@
         <v>3.9837287234042549</v>
       </c>
       <c r="D70" s="6">
-        <f>C70-B70</f>
+        <f t="shared" si="2"/>
         <v>-0.29992604484294816</v>
       </c>
       <c r="E70" s="6">
@@ -2273,7 +2273,7 @@
         <v>0.24241489361702129</v>
       </c>
       <c r="D71" s="6">
-        <f>C71-B71</f>
+        <f t="shared" si="2"/>
         <v>-0.32931659279746983</v>
       </c>
       <c r="E71" s="6">
@@ -2294,7 +2294,7 @@
         <v>0.94312765957446809</v>
       </c>
       <c r="D72" s="6">
-        <f>C72-B72</f>
+        <f t="shared" si="2"/>
         <v>-0.37562034255659194</v>
       </c>
       <c r="E72" s="6">
@@ -2315,7 +2315,7 @@
         <v>2.50725</v>
       </c>
       <c r="D73" s="6">
-        <f>C73-B73</f>
+        <f t="shared" si="2"/>
         <v>-0.38953742674480596</v>
       </c>
       <c r="E73" s="6">
@@ -2336,7 +2336,7 @@
         <v>6.9268031914893617</v>
       </c>
       <c r="D74" s="6">
-        <f>C74-B74</f>
+        <f t="shared" si="2"/>
         <v>-0.4365425730284862</v>
       </c>
       <c r="E74" s="6">
@@ -2357,7 +2357,7 @@
         <v>10.48287765957447</v>
       </c>
       <c r="D75" s="6">
-        <f>C75-B75</f>
+        <f t="shared" si="2"/>
         <v>-0.4373940506013394</v>
       </c>
       <c r="E75" s="6">
@@ -2378,7 +2378,7 @@
         <v>0.44520744680851071</v>
       </c>
       <c r="D76" s="6">
-        <f>C76-B76</f>
+        <f t="shared" si="2"/>
         <v>-0.48382824844988032</v>
       </c>
       <c r="E76" s="6">
@@ -2399,7 +2399,7 @@
         <v>2.6854042553191491</v>
       </c>
       <c r="D77" s="6">
-        <f>C77-B77</f>
+        <f t="shared" si="2"/>
         <v>-0.53495802491526812</v>
       </c>
       <c r="E77" s="6">
@@ -2420,7 +2420,7 @@
         <v>4.8182234042553196</v>
       </c>
       <c r="D78" s="6">
-        <f>C78-B78</f>
+        <f t="shared" si="2"/>
         <v>-0.62647025584057747</v>
       </c>
       <c r="E78" s="6">
@@ -2441,7 +2441,7 @@
         <v>1.7125797872340429</v>
       </c>
       <c r="D79" s="6">
-        <f>C79-B79</f>
+        <f t="shared" si="2"/>
         <v>-0.70552356918577597</v>
       </c>
       <c r="E79" s="6">
@@ -2462,7 +2462,7 @@
         <v>5.1819308510638296</v>
       </c>
       <c r="D80" s="6">
-        <f>C80-B80</f>
+        <f t="shared" si="2"/>
         <v>-0.77372711377367764</v>
       </c>
       <c r="E80" s="6">
@@ -2483,7 +2483,7 @@
         <v>8.9208404255319156</v>
       </c>
       <c r="D81" s="6">
-        <f>C81-B81</f>
+        <f t="shared" si="2"/>
         <v>-0.7898894625874231</v>
       </c>
       <c r="E81" s="6">
@@ -2504,7 +2504,7 @@
         <v>16.588851063829789</v>
       </c>
       <c r="D82" s="6">
-        <f>C82-B82</f>
+        <f t="shared" si="2"/>
         <v>-0.97774456749679928</v>
       </c>
       <c r="E82" s="6">
@@ -2525,7 +2525,7 @@
         <v>0.50344680851063828</v>
       </c>
       <c r="D83" s="6">
-        <f>C83-B83</f>
+        <f t="shared" si="2"/>
         <v>-0.99493891338600582</v>
       </c>
       <c r="E83" s="6">
@@ -2546,7 +2546,7 @@
         <v>4.4889148936170216</v>
       </c>
       <c r="D84" s="6">
-        <f>C84-B84</f>
+        <f t="shared" si="2"/>
         <v>-1.1553738650404108</v>
       </c>
       <c r="E84" s="6">
@@ -2567,7 +2567,7 @@
         <v>15.915159574468079</v>
       </c>
       <c r="D85" s="6">
-        <f>C85-B85</f>
+        <f t="shared" si="2"/>
         <v>-1.2198590723086919</v>
       </c>
       <c r="E85" s="6">
@@ -2588,7 +2588,7 @@
         <v>2.5678510638297869</v>
       </c>
       <c r="D86" s="6">
-        <f>C86-B86</f>
+        <f t="shared" si="2"/>
         <v>-1.332479250501593</v>
       </c>
       <c r="E86" s="6">
@@ -2609,7 +2609,7 @@
         <v>3.4357021276595749</v>
       </c>
       <c r="D87" s="6">
-        <f>C87-B87</f>
+        <f t="shared" si="2"/>
         <v>-1.4029872703159181</v>
       </c>
       <c r="E87" s="6">
@@ -2630,7 +2630,7 @@
         <v>26.061867021276591</v>
       </c>
       <c r="D88" s="6">
-        <f>C88-B88</f>
+        <f t="shared" si="2"/>
         <v>-3.0105517320531909</v>
       </c>
       <c r="E88" s="6">
@@ -2651,7 +2651,7 @@
         <v>429.86382978723412</v>
       </c>
       <c r="D89" s="6">
-        <f>C89-B89</f>
+        <f t="shared" si="2"/>
         <v>-302.25923893945736</v>
       </c>
       <c r="E89" s="6">
